--- a/数据整理/stocks/A股/深证主板/002563-森马服饰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002563-森马服饰.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>28.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.76</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2341</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>19.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.99</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.9338</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>020001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>国泰金鹰增长灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>18.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.8193</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>14.23</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>7.90</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>5</v>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4216</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000972</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新华万银多元策略灵活配置混合</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>11.99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>5</v>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1702</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002776</t>
+          <t>160215</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合A</t>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24.92</t>
+          <t>11.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0615</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002777</t>
+          <t>002967</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>招商安荣灵活配置混合C</t>
+          <t>浙商大数据智选消费灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24.92</t>
+          <t>9.66</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3584</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>005335</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>浙商全景消费混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.27</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.41</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>002776</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>招商安荣灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>6.36</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10.03</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>002819</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>招商丰美灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>5.24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10.03</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -772,25 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002819</t>
+          <t>009181</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商丰美灵活配置混合A</t>
+          <t>浙商智多兴稳健回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>11.98</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>10</v>
       </c>
     </row>
@@ -800,26 +920,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002820</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>招商丰美灵活配置混合C</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>28.97</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002967</t>
+          <t>003980</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>浙商大数据智选消费灵活配置混合</t>
+          <t>中银证券瑞益灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>93.37</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.71</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -856,26 +996,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003980</t>
+          <t>009182</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合A</t>
+          <t>浙商智多兴稳健回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>5.90</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>6</v>
+          <t>20.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>003981</t>
+          <t>004794</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合C</t>
+          <t>富荣福鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.53</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>6</v>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>004794</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合A</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>88.01</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>004795</t>
+          <t>000972</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合C</t>
+          <t>新华万银多元策略灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>88.01</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009181</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>浙商智多兴稳健回报一年持有期混合A</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>20.81</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>10</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -996,26 +1186,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009182</t>
+          <t>003981</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>浙商智多兴稳健回报一年持有期混合C</t>
+          <t>中银证券瑞益灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>20.81</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>89.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1024,26 +1224,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>020001</t>
+          <t>004795</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国泰金鹰增长灵活配置混合</t>
+          <t>富荣福鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>92.50</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>9.92</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1</v>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -1052,26 +1262,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>160215</t>
+          <t>002777</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>国泰价值经典灵活配置混合（LOF）</t>
+          <t>招商安荣灵活配置混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>93.81</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>1</v>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -1080,26 +1300,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>005335</t>
+          <t>002820</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>浙商全景消费混合</t>
+          <t>招商丰美灵活配置混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>91.13</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>5</v>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1113,7 +1343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,15 +1364,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001007</t>
+          <t>001645</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国联安鑫安灵活配置混合</t>
+          <t>国泰大健康股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.80</t>
+          <t>16.83</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4575</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004794</t>
+          <t>009805</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合A</t>
+          <t>国泰医药健康股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>66.70</t>
+          <t>19.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3927</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1210,25 +1470,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004795</t>
+          <t>020001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合C</t>
+          <t>国泰金鹰增长灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>66.70</t>
+          <t>15.36</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3916</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005335</t>
+          <t>008370</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>浙商全景消费混合</t>
+          <t>国泰研究精选两年持有期混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>12.87</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1416</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1266,25 +1546,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>020001</t>
+          <t>009804</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国泰金鹰增长灵活配置混合</t>
+          <t>国泰研究优势混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>94.18</t>
+          <t>9.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>9.06</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8973</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1304,15 +1594,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>94.41</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>9.04</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7802</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009804</t>
+          <t>002967</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰研究优势混合</t>
+          <t>浙商大数据智选消费灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>6.88</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9.10</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2174</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009805</t>
+          <t>005335</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国泰医药健康股票A</t>
+          <t>浙商全景消费混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>3.66</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1378,25 +1698,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011326</t>
+          <t>001007</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰医药健康股票C</t>
+          <t>国联安鑫安灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>7.12</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>89.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000916</t>
+          <t>004076</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源股息率100强等权重股票</t>
+          <t>国联安锐意成长混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1.32</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001645</t>
+          <t>000916</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国泰大健康股票A</t>
+          <t>前海开源股息率100强等权重股票</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8.66</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>4</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1462,26 +1812,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>011321</t>
+          <t>011326</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>国泰大健康股票C</t>
+          <t>国泰医药健康股票C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.43</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8.66</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>4</v>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>002967</t>
+          <t>011321</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>浙商大数据智选消费灵活配置混合</t>
+          <t>国泰大健康股票C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>004076</t>
+          <t>004794</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国联安锐意成长混合</t>
+          <t>富荣福鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.16</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>8</v>
+          <t>66.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>008370</t>
+          <t>004795</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国泰研究精选两年持有期混合</t>
+          <t>富荣福鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8.87</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>66.70</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002563-森马服饰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002563-森马服饰.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1961,4 +1962,706 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6451</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4333</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.2769</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.0935</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7467</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>160215</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰价值经典灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6373</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5480</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2391</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519093</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华钻石品质企业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001004</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华稳健回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512190</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>浙商汇金中证浙江凤凰行动50ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>501069</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华宝标普中国Ａ股质量价值指数（ＬＯＦ）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002563-森马服饰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002563-森马服饰.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2664,4 +2665,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001645</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰大健康股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0521</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金鹰增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9843</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8676</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6644</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3458</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002270</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>东吴安盈量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011326</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011321</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰大健康股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002563-森马服饰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002563-森马服饰.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3025,4 +3026,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.89</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>22</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002563-森马服饰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002563-森马服饰.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3034,7 +3035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3045,17 +3046,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3065,14 +3086,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.03</v>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -3081,14 +3124,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.89</v>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -3097,14 +3162,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>7.66</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="5">
@@ -3113,13 +3284,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>22</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002563-森马服饰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002563-森马服饰.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3205,7 +3206,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3216,17 +3217,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3236,14 +3257,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.45</v>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>62.17</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3015</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3252,14 +3295,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.03</v>
+          <t>005335</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>浙商全景消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3268,14 +3333,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>7.89</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="5">
@@ -3284,14 +3455,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>7.66</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="6">
@@ -3300,13 +3471,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>15</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>22</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.6</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002563-森马服饰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002563-森马服饰.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.45</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -503,7 +504,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>4.03</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>7.89</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" t="n">
-        <v>7.66</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>22</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.6</v>
       </c>
     </row>
@@ -639,36 +656,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.17</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3015</t>
+          <t>0.0442</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +694,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005335</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商全景消费混合</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1362</t>
+          <t>0.0342</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +732,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003981</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合C</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>98.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0308</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -809,36 +826,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003980</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合A</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.64</t>
+          <t>62.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2350</t>
+          <t>0.3015</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -847,36 +864,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>005335</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>浙商全景消费混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.23</t>
+          <t>93.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2053</t>
+          <t>0.1362</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -895,26 +912,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.64</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -923,6 +940,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1282,7 +1469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1984,7 +2171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2610,7 +2797,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/002563-森马服饰.xlsx
+++ b/数据整理/stocks/A股/深证主板/002563-森马服饰.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.45</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4">
@@ -520,7 +521,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>4.03</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>7.89</v>
+        <v>4.03</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D7" t="n">
-        <v>7.66</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>22</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.6</v>
       </c>
     </row>
@@ -666,26 +683,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.44</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0442</t>
+          <t>0.0539</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008114</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证红利低波动100指数A</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.56</t>
+          <t>99.17</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0342</t>
+          <t>0.0416</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>515100</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>景顺长城中证红利低波动100ETF</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>98.63</t>
+          <t>94.95</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>2.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0308</t>
+          <t>0.0400</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -826,36 +843,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>008115</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>天弘中证红利低波动100指数C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.45</t>
+          <t>2.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>62.17</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.19</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.3015</t>
+          <t>0.0442</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -864,36 +881,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005335</t>
+          <t>008114</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>浙商全景消费混合</t>
+          <t>天弘中证红利低波动100指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.36</t>
+          <t>94.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.92</t>
+          <t>1.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1362</t>
+          <t>0.0342</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -902,36 +919,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>003981</t>
+          <t>515100</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合C</t>
+          <t>景顺长城中证红利低波动100ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.21</t>
+          <t>98.63</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.57</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0308</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -996,36 +1013,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003980</t>
+          <t>001479</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中银证券瑞益灵活配置混合A</t>
+          <t>中邮风格轮动灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.35</t>
+          <t>9.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>79.64</t>
+          <t>62.17</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2350</t>
+          <t>0.3015</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1034,36 +1051,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001479</t>
+          <t>005335</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中邮风格轮动灵活配置混合</t>
+          <t>浙商全景消费混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.52</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>82.23</t>
+          <t>93.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>5.92</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2053</t>
+          <t>0.1362</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -1082,26 +1099,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>79.64</t>
+          <t>89.21</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.70</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0075</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1110,6 +1127,176 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2350</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001479</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中邮风格轮动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003981</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中银证券瑞益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1469,7 +1656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2171,7 +2358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2797,7 +2984,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
